--- a/doc/Рассчет триггера.xlsx
+++ b/doc/Рассчет триггера.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,11 +397,11 @@
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>C3+(D3-C3)*F3/(E3+F3)</f>
-        <v>8.1688069797078711E-2</v>
+        <v>0.59004329004329004</v>
       </c>
       <c r="C3">
         <f>H3*F3/(G3+F3)</f>
-        <v>4.9504950495049507E-2</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="D3">
         <v>3.3</v>
@@ -410,10 +410,10 @@
         <v>100000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G3">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H3">
         <v>5</v>
